--- a/excel/1995/Report-1995-01-25.xlsx
+++ b/excel/1995/Report-1995-01-25.xlsx
@@ -13,37 +13,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="161">
   <si>
-    <t>recall_classification_date</t>
-  </si>
-  <si>
-    <t>product_type</t>
-  </si>
-  <si>
-    <t>classification</t>
-  </si>
-  <si>
-    <t>recall_number</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>recalling_firm</t>
-  </si>
-  <si>
-    <t>manufacturer</t>
-  </si>
-  <si>
-    <t>recall_initiation_date</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>distribution</t>
+    <t>RECALL_CLASSIFICATION_DATE</t>
+  </si>
+  <si>
+    <t>PRODUCT_TYPE</t>
+  </si>
+  <si>
+    <t>CLASSIFICATION</t>
+  </si>
+  <si>
+    <t>RECALL_NUMBER</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>RECALLING_FIRM</t>
+  </si>
+  <si>
+    <t>MANUFACTURER</t>
+  </si>
+  <si>
+    <t>RECALL_INITIALIZATION_DATE</t>
+  </si>
+  <si>
+    <t>REASON</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
+  </si>
+  <si>
+    <t>DISTRIBUTION</t>
   </si>
   <si>
     <t>1995-01-25</t>
@@ -52,152 +52,145 @@
     <t>Drugs</t>
   </si>
   <si>
-    <t xml:space="preserve"> II
-</t>
+    <t>II</t>
   </si>
   <si>
     <t>d-050-5</t>
   </si>
   <si>
-    <t>Alupent (metaproterenol Sulfate Usp) Inhalation Complete  With Mouthpiece, 200 Metered Doses, Rx Used In The Treatment  Of Asthma</t>
-  </si>
-  <si>
-    <t>Boehringer-ingelheim Pharmaceuticals</t>
-  </si>
-  <si>
-    <t>3-m Pharmaceuticals, Inc</t>
-  </si>
-  <si>
-    <t>January 9, 1995</t>
-  </si>
-  <si>
-    <t>Product Does Not Meet Particle Size Specifications.    -2-</t>
-  </si>
-  <si>
-    <t>75,034 units of lot 930181a, 71,566 units of lot 930183a,
- 59,048 units of lot 930184b, 7,845 units of lot 930184c,
- 12,128 units of lot 930732b were distributed</t>
+    <t>Alupent Metaproterenol Sulfate Usp Inhalation Complete With Mouthpiece 200 Metered Doses Rx Used In The Treatment Of Asthma</t>
+  </si>
+  <si>
+    <t>Boehringer Ingelheim Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>3 M Pharmaceuticals Inc</t>
+  </si>
+  <si>
+    <t>January 9 1995</t>
+  </si>
+  <si>
+    <t>Product Does Not Meet Particle Size Specifications 2</t>
+  </si>
+  <si>
+    <t>75 034 Units Of Lot 930181 A 71 566 Units Of Lot 930183 A 59 048 Units Of Lot 930184 B 7 845 Units Of Lot 930184 C 12 128 Units Of Lot 930732 B Were Distributed</t>
   </si>
   <si>
     <t>Nationwide</t>
   </si>
   <si>
-    <t xml:space="preserve"> III</t>
+    <t>III</t>
   </si>
   <si>
     <t>d-046-5</t>
   </si>
   <si>
-    <t>Anacin Coated Analgesic Tablets, Otc, In 2 And 12 Count  Tins</t>
+    <t>Anacin Coated Analgesic Tablets Otc In 2 And 12 Count Tins</t>
   </si>
   <si>
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>Whitehall Robins, Hammonton, New Jersey</t>
-  </si>
-  <si>
-    <t>April 4, 1994</t>
-  </si>
-  <si>
-    <t>Product Does Not Meet Content Uniformity Specification For  Caffeine Ingredient</t>
-  </si>
-  <si>
-    <t>113,400 tablets were distributed</t>
+    <t>Whitehall Robins Hammonton New Jersey</t>
+  </si>
+  <si>
+    <t>April 4 1994</t>
+  </si>
+  <si>
+    <t>Product Does Not Meet Content Uniformity Specification For Caffeine Ingredient</t>
+  </si>
+  <si>
+    <t>113 400 Tablets Were Distributed</t>
   </si>
   <si>
     <t>d-047-5</t>
   </si>
   <si>
-    <t>Momentum Muscular Backache Formula Caplets, Otc Analgesic,  In Bottles Of 24</t>
-  </si>
-  <si>
-    <t>Whitehall Robins, Division Of American Home Products  Corporation, Hammonton, New Jersey</t>
-  </si>
-  <si>
-    <t>Product Does Not Meet Stability Specification For  Disintegration</t>
-  </si>
-  <si>
-    <t>212,688 tablets were distributed; firm estimates none
- remains on market</t>
+    <t>Momentum Muscular Backache Formula Caplets Otc Analgesic In Bottles Of 24</t>
+  </si>
+  <si>
+    <t>Whitehall Robins Division Of American Home Products Corporation Hammonton New Jersey</t>
+  </si>
+  <si>
+    <t>Product Does Not Meet Stability Specification For Disintegration</t>
+  </si>
+  <si>
+    <t>212 688 Tablets Were Distributed Firm Estimates None Remains On Market</t>
   </si>
   <si>
     <t>d-048-5</t>
   </si>
   <si>
-    <t>Dristan 12-hour Nasal Spray, In 1/2 Fluid Ounce Bottles, Otc  Nasal Spray</t>
-  </si>
-  <si>
-    <t>Whitehall-robins</t>
-  </si>
-  <si>
-    <t>Whitehall Robins, Inc</t>
-  </si>
-  <si>
-    <t>November 2, 1993</t>
-  </si>
-  <si>
-    <t>Warning Statement On Immediate Container Label Did Not  Appear On Unit Carton</t>
-  </si>
-  <si>
-    <t>36,496 dozen bottles were distributed; firm estimates none
- remains on market</t>
+    <t>Dristan 12 Hour Nasal Spray In 1 2 Fluid Ounce Bottles Otc Nasal Spray</t>
+  </si>
+  <si>
+    <t>Whitehall Robins</t>
+  </si>
+  <si>
+    <t>Whitehall Robins Inc</t>
+  </si>
+  <si>
+    <t>November 2 1993</t>
+  </si>
+  <si>
+    <t>Warning Statement On Immediate Container Label Did Not Appear On Unit Carton</t>
+  </si>
+  <si>
+    <t>36 496 Dozen Bottles Were Distributed Firm Estimates None Remains On Market</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Preparation H Hemorrhoidal Suppositories, Otc Rectal  Vasoconstrictor Suppository, In 12, 24, 36 And 48 Count  Cartons</t>
+    <t>Preparation H Hemorrhoidal Suppositories Otc Rectal Vasoconstrictor Suppository In 12 24 36 And 48 Count Cartons</t>
   </si>
   <si>
     <t>Preservative Ingredient Is Marginally Subpotent</t>
   </si>
   <si>
-    <t>firm estimates none remains on the market</t>
+    <t>Firm Estimates None Remains On The Market</t>
   </si>
   <si>
     <t>d-051-5</t>
   </si>
   <si>
-    <t>Amantadine Hydrochloride Capsules, Usp, 100 Mg, Rx Oral Drug  For The Prevention Or Chemoprophylaxis Of And The Treatment  Of Respiratory Tract Illness</t>
+    <t>Amantadine Hydrochloride Capsules Usp 100 Mg Rx Oral Drug For The Prevention Or Chemoprophylaxis Of And The Treatment Of Respiratory Tract Illness</t>
   </si>
   <si>
     <t>Udl Laboratories</t>
   </si>
   <si>
-    <t>Chase Laboratories, Newark, New Jersey</t>
-  </si>
-  <si>
-    <t>January 12, 1995</t>
+    <t>Chase Laboratories Newark New Jersey</t>
+  </si>
+  <si>
+    <t>January 12 1995</t>
   </si>
   <si>
     <t>Product Does Not Meet Usp Content Uniformity Specifications</t>
   </si>
   <si>
-    <t>5,262 cartons of 100 unit dose capsules were distributed;
- firm estimated that 50% of the product remained on market at
- time of recall initiation</t>
+    <t>5 262 Cartons Of 100 Unit Dose Capsules Were Distributed Firm Estimated That 50 Of The Product Remained On Market At Time Of Recall Initiation</t>
   </si>
   <si>
     <t>d-052-5</t>
   </si>
   <si>
-    <t>Regular Strength Acetaminophen Tablets, 325 Mg, Packaged In  100 And 1000 Tablet Bottles, Then Repackaged Under The  Goldline And Kerr Labels</t>
-  </si>
-  <si>
-    <t>Granutec, Inc</t>
-  </si>
-  <si>
-    <t>December 21, 1994</t>
+    <t>Regular Strength Acetaminophen Tablets 325 Mg Packaged In 100 And 1000 Tablet Bottles Then Repackaged Under The Goldline And Kerr Labels</t>
+  </si>
+  <si>
+    <t>Granutec Inc</t>
+  </si>
+  <si>
+    <t>December 21 1994</t>
   </si>
   <si>
     <t>Presence Of Metallic Particles In The Product</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Florida, North Carolina, Ohio</t>
+    <t>6 2 Million Tablets Were Distributed</t>
+  </si>
+  <si>
+    <t>Florida North Carolina Ohio</t>
   </si>
   <si>
     <t>Devices</t>
@@ -206,19 +199,19 @@
     <t>z-254-5</t>
   </si>
   <si>
-    <t>Siemens Conventional Mevatron Linear Accelerator System,  Used To Provide Teletherapy X-ray Beams For The Treatment Of  Cancer</t>
-  </si>
-  <si>
-    <t>Siemens Medical Systems, Inc</t>
-  </si>
-  <si>
-    <t>June 14, 1994</t>
-  </si>
-  <si>
-    <t>A Design Defect In The Software Allows The Entry, And  Acceptance Of Erroneous Treatment Parameters When Using The  Mevatron Linac System</t>
-  </si>
-  <si>
-    <t>approximately 800 units</t>
+    <t>Siemens Conventional Mevatron Linear Accelerator System Used To Provide Teletherapy X Ray Beams For The Treatment Of Cancer</t>
+  </si>
+  <si>
+    <t>Siemens Medical Systems Inc</t>
+  </si>
+  <si>
+    <t>June 14 1994</t>
+  </si>
+  <si>
+    <t>A Design Defect In The Software Allows The Entry And Acceptance Of Erroneous Treatment Parameters When Using The Mevatron Linac System</t>
+  </si>
+  <si>
+    <t>Approximately 800 Units</t>
   </si>
   <si>
     <t>Nationwide And International</t>
@@ -227,117 +220,115 @@
     <t>z-258-5</t>
   </si>
   <si>
-    <t>Rms-2000 Radiation Management System</t>
-  </si>
-  <si>
-    <t>Varian Associates, Inc</t>
-  </si>
-  <si>
-    <t>February 19, 1993</t>
-  </si>
-  <si>
-    <t>A Bug In The System's Novelle Netware (ver 3</t>
-  </si>
-  <si>
-    <t>50 units</t>
+    <t>Rms 2000 Radiation Management System</t>
+  </si>
+  <si>
+    <t>Varian Associates Inc</t>
+  </si>
+  <si>
+    <t>February 19 1993</t>
+  </si>
+  <si>
+    <t>A Bug In The System's Novelle Netware Ver 3</t>
+  </si>
+  <si>
+    <t>50 Units</t>
   </si>
   <si>
     <t>z-259/263-5</t>
   </si>
   <si>
-    <t>Clinac Medical Linear Accelerators:  (a) Model Cl 12-8; (b) Model Cl-12-10;   (c) Model Cl 18-20; (d) Model Cl 1800;  (e) Model Cl 2100 C</t>
-  </si>
-  <si>
-    <t>April 21, 1992</t>
-  </si>
-  <si>
-    <t>A Carousel Misalignment Caused Several Incidences Of Random  Transverse Beam Asymmetry</t>
-  </si>
-  <si>
-    <t>approximately 400 units</t>
+    <t>Clinac Medical Linear Accelerators A Model Cl 12 8 B Model Cl 12 10 C Model Cl 18 20 D Model Cl 1800 E Model Cl 2100 C</t>
+  </si>
+  <si>
+    <t>April 21 1992</t>
+  </si>
+  <si>
+    <t>A Carousel Misalignment Caused Several Incidences Of Random Transverse Beam Asymmetry</t>
+  </si>
+  <si>
+    <t>Approximately 400 Units</t>
   </si>
   <si>
     <t>z-252/253-5</t>
   </si>
   <si>
-    <t>Medrad Disposable Syringes, Fluid Delivery Products,  Packaged As (a) Ct Tri-paks; (b) 200 Ml Fasturn Syringes</t>
+    <t>Medrad Disposable Syringes Fluid Delivery Products Packaged As A Ct Tri Paks B 200 Ml Fasturn Syringes</t>
   </si>
   <si>
     <t>Medrad</t>
   </si>
   <si>
-    <t>Medrad, Inc</t>
-  </si>
-  <si>
-    <t>March 22, 1994</t>
-  </si>
-  <si>
-    <t>The Sterility Of The Device Has Been Compromised By A Loss  Of Package Integrity, I</t>
-  </si>
-  <si>
-    <t>96 packaged devices</t>
-  </si>
-  <si>
-    <t>California, Colorado, Florida, Kentucky, Tennessee, Utah,  Virginia</t>
+    <t>Medrad Inc</t>
+  </si>
+  <si>
+    <t>March 22 1994</t>
+  </si>
+  <si>
+    <t>The Sterility Of The Device Has Been Compromised By A Loss Of Package Integrity I</t>
+  </si>
+  <si>
+    <t>96 Packaged Devices</t>
+  </si>
+  <si>
+    <t>California Colorado Florida Kentucky Tennessee Utah Virginia</t>
   </si>
   <si>
     <t>z-299-5</t>
   </si>
   <si>
-    <t>Image Receptor Support Device (irsd), Model 4512-590-12681,  Used To Provide Breast Cancer Screening And/or Diagnosis  Through Radiography Of The Breast</t>
-  </si>
-  <si>
-    <t>Manufacturer.  Fda Approved The Firm's Corrective Action  Plan December 21</t>
-  </si>
-  <si>
-    <t>Lorad Corporation, Danbury, Connecticut</t>
-  </si>
-  <si>
-    <t>The Fourth Position Of The Automatic Exposure Control (aec)  Detector In The Irsd Was Insufficiently Leaded And  Transmission Limit Exceeded 0</t>
-  </si>
-  <si>
-    <t>24 units</t>
+    <t>Image Receptor Support Device Irsd Model 4512 590 12681 Used To Provide Breast Cancer Screening And Or Diagnosis Through Radiography Of The Breast</t>
+  </si>
+  <si>
+    <t>Manufacturer Fda Approved The Firm's Corrective Action Plan December 21</t>
+  </si>
+  <si>
+    <t>Lorad Corporation Danbury Connecticut</t>
+  </si>
+  <si>
+    <t>The Fourth Position Of The Automatic Exposure Control Aec Detector In The Irsd Was Insufficiently Leaded And Transmission Limit Exceeded 0</t>
+  </si>
+  <si>
+    <t>24 Units</t>
   </si>
   <si>
     <t>z-301-5</t>
   </si>
   <si>
-    <t>S.   _______________ product Auto Suture Premium Ceea Disposable Stapler</t>
-  </si>
-  <si>
-    <t>United States Surgical Corporation, Norwalk, Connecticut</t>
-  </si>
-  <si>
-    <t>October 7, 1994</t>
+    <t>S Product Auto Suture Premium Ceea Disposable Stapler</t>
+  </si>
+  <si>
+    <t>United States Surgical Corporation Norwalk Connecticut</t>
+  </si>
+  <si>
+    <t>October 7 1994</t>
   </si>
   <si>
     <t>The Low Profile Anvil Head Can Come Off During Firing</t>
   </si>
   <si>
-    <t>11,010 units</t>
+    <t>11 010 Units</t>
   </si>
   <si>
     <t>z-270/274-5</t>
   </si>
   <si>
-    <t>Allergan "resolve/gp" Daily Cleanser For Cleaning Rigid Gas  Permeable And Hard Contact Lenses:  (a) Resolve/gp Daily Cleaner In 30 Ml Bottles, Part #515;   (b) Resolve/gp Daily Cleaner In 5 Ml Bottles;   (c) Wet-n-soak Kit, Part #6635 (contains 5 Ml Bottle);   (d) Wet-n-soak Kit, Part #180kt (contains 5 Ml Bottle);   (e) Wet-n-soak Kit, Part #854 (contains 5 Ml Bottle)</t>
+    <t>Allergan Resolve Gp Daily Cleanser For Cleaning Rigid Gas Permeable And Hard Contact Lenses A Resolve Gp Daily Cleaner In 30 Ml Bottles Part 515 B Resolve Gp Daily Cleaner In 5 Ml Bottles C Wet N Soak Kit Part 6635 Contains 5 Ml Bottle D Wet N Soak Kit Part 180 Kt Contains 5 Ml Bottle E Wet N Soak Kit Part 854 Contains 5 Ml Bottle</t>
   </si>
   <si>
     <t>Allergan</t>
   </si>
   <si>
-    <t>Allergan America, Hormigueros, Puerto Rico</t>
-  </si>
-  <si>
-    <t>November 9, 1994</t>
-  </si>
-  <si>
-    <t>: The Resolve/gp Daily Cleaner Was Misformulated To Contain  Less Than The Required Amount Of One Of Its Surfactant  Ingredients And Does Not Meet Its Physical Appearance  Specifications</t>
-  </si>
-  <si>
-    <t>approximately 293,960 bottles were distributed; firm
- estimated that 50,000 bottles remained at time of recall
- initiation</t>
+    <t>Allergan America Hormigueros Puerto Rico</t>
+  </si>
+  <si>
+    <t>November 9 1994</t>
+  </si>
+  <si>
+    <t>The Resolve Gp Daily Cleaner Was Misformulated To Contain Less Than The Required Amount Of One Of Its Surfactant Ingredients And Does Not Meet Its Physical Appearance Specifications</t>
+  </si>
+  <si>
+    <t>Approximately 293 960 Bottles Were Distributed Firm Estimated That 50 000 Bottles Remained At Time Of Recall Initiation 6</t>
   </si>
   <si>
     <t>Nationwide And Russia</t>
@@ -346,164 +337,163 @@
     <t>z-275/277-5</t>
   </si>
   <si>
-    <t>Elisa Serology Test Kits: (a) Herpes Simplex Virus 1 Igm  Elisa Serology Test Kit, Catalog #2305450, For The Detection  Of Igm Antibodies To Herpes Simplex Virus 1 Antigen In Human  Serum; (b) Chlamydia Trachomatis Igg Elisa Serology Test  Kits, Catalog #2306200, For The Detection Of Igg Antibodies  To Chlamydia Trachomatis Antigen In Human Serum; (c) Mumps  Igg Elisa Serology Test Kits, Catalog #2305900 For The  Detection Of Igg Antibodies To Mumps Antigen In Human Serum,  For Vitro Diagnostic Use</t>
-  </si>
-  <si>
-    <t>Clark Laboratories, Inc</t>
-  </si>
-  <si>
-    <t>September 19, 1994</t>
-  </si>
-  <si>
-    <t>The Absorbance Values For Controls And Specimens Are Lower  Than Expected</t>
-  </si>
-  <si>
-    <t>(a) 608 units; (b) 98 units; (c) 214 units were distributed</t>
-  </si>
-  <si>
-    <t>Maryland, Florida, Greece, Turkey, Chile, Mexico, Israel,  Australia, Portugal, Spain</t>
+    <t>Elisa Serology Test Kits A Herpes Simplex Virus 1 Igm Elisa Serology Test Kit Catalog 2305450 For The Detection Of Igm Antibodies To Herpes Simplex Virus 1 Antigen In Human Serum B Chlamydia Trachomatis Igg Elisa Serology Test Kits Catalog 2306200 For The Detection Of Igg Antibodies To Chlamydia Trachomatis Antigen In Human Serum C Mumps Igg Elisa Serology Test Kits Catalog 2305900 For The Detection Of Igg Antibodies To Mumps Antigen In Human Serum For Vitro Diagnostic Use</t>
+  </si>
+  <si>
+    <t>Clark Laboratories Inc</t>
+  </si>
+  <si>
+    <t>September 19 1994</t>
+  </si>
+  <si>
+    <t>The Absorbance Values For Controls And Specimens Are Lower Than Expected</t>
+  </si>
+  <si>
+    <t>A 608 Units B 98 Units C 214 Units Were Distributed</t>
+  </si>
+  <si>
+    <t>Maryland Florida Greece Turkey Chile Mexico Israel Australia Portugal Spain</t>
   </si>
   <si>
     <t>z-278-5</t>
   </si>
   <si>
-    <t>Spottest Voges-proskauer Reagent A, In-vitro Diagnostic Kit  Used For Determining The Ability Of Bacteria To Produce  Acetylmethyl Carbinol As An End Product Of Glucose  Metabolism</t>
+    <t>Spottest Voges Proskauer Reagent A In Vitro Diagnostic Kit Used For Determining The Ability Of Bacteria To Produce Acetylmethyl Carbinol As An End Product Of Glucose Metabolism</t>
   </si>
   <si>
     <t>Repacker</t>
   </si>
   <si>
-    <t>Difco Laboratories, Mausten, Wisconsin (repacker)</t>
-  </si>
-  <si>
-    <t>October 20, 1994</t>
-  </si>
-  <si>
-    <t>The Label On The Product Incorrectly States The Device Is  Spottest Voges-proskauer Reagent B</t>
-  </si>
-  <si>
-    <t>88 boxes</t>
-  </si>
-  <si>
-    <t>Kentucky, Texas, New Jersey, Georgia, Florida, Illinois,  Michigan, Ireland, Finland, Greece, Taiwan</t>
+    <t>Difco Laboratories Mausten Wisconsin Repacker</t>
+  </si>
+  <si>
+    <t>October 20 1994</t>
+  </si>
+  <si>
+    <t>The Label On The Product Incorrectly States The Device Is Spottest Voges Proskauer Reagent B</t>
+  </si>
+  <si>
+    <t>88 Boxes</t>
+  </si>
+  <si>
+    <t>Kentucky Texas New Jersey Georgia Florida Illinois Michigan Ireland Finland Greece Taiwan</t>
   </si>
   <si>
     <t>z-279/280-5</t>
   </si>
   <si>
-    <t>Qbc Centrifuge Power Supply, 120/220 Volt, Supplied With The  Qbc Centrifuge: (a) Qbc Centrifuge, Catalog #424740;   (b) Qbc Centrifuge Power Supply Supplied As A Replacement  Part, Catalog #42474004</t>
-  </si>
-  <si>
-    <t>Becton Dickinson, Primary Care Diagnostics, Sparks,  Maryland</t>
-  </si>
-  <si>
-    <t>October 10, 1994</t>
-  </si>
-  <si>
-    <t>A Defective Component In The Power Supply May Produce A  Visual Flash And Smoke</t>
-  </si>
-  <si>
-    <t>1,034 units were distributed</t>
+    <t>Qbc Centrifuge Power Supply 120 220 Volt Supplied With The Qbc Centrifuge A Qbc Centrifuge Catalog 424740 B Qbc Centrifuge Power Supply Supplied As A Replacement Part Catalog 42474004</t>
+  </si>
+  <si>
+    <t>Becton Dickinson Primary Care Diagnostics Sparks Maryland</t>
+  </si>
+  <si>
+    <t>October 10 1994</t>
+  </si>
+  <si>
+    <t>A Defective Component In The Power Supply May Produce A Visual Flash And Smoke</t>
+  </si>
+  <si>
+    <t>1 034 Units Were Distributed</t>
   </si>
   <si>
     <t>z-281/282-5</t>
   </si>
   <si>
-    <t>Precise Hcg Test Kit Used In The Detection Of Human  Chorionic Gonadotropin (hcg) In Urine Specimens For The  Early Detection Of Pregnancy: (a) Catalog #496220, 200 And  40 Test Kits; (b) Catalog #496240, 200 And 40 Test Kits</t>
-  </si>
-  <si>
-    <t>Becton Dickinson Advanced Diagnostics, Sparks, Maryland</t>
-  </si>
-  <si>
-    <t>September 26, 1994</t>
-  </si>
-  <si>
-    <t>False Positive Results In Excess Of Expected Specificity  Levels Of 99</t>
-  </si>
-  <si>
-    <t>2,971 units were distributed</t>
+    <t>Precise Hcg Test Kit Used In The Detection Of Human Chorionic Gonadotropin Hcg In Urine Specimens For The Early Detection Of Pregnancy A Catalog 496220 200 And 40 Test Kits B Catalog 496240 200 And 40 Test Kits</t>
+  </si>
+  <si>
+    <t>Becton Dickinson Advanced Diagnostics Sparks Maryland</t>
+  </si>
+  <si>
+    <t>September 26 1994</t>
+  </si>
+  <si>
+    <t>False Positive Results In Excess Of Expected Specificity Levels Of 99</t>
+  </si>
+  <si>
+    <t>2 971 Units Were Distributed</t>
   </si>
   <si>
     <t>z-309-5</t>
   </si>
   <si>
-    <t>Peptostreptococuss Anaerobius Atcc 27337, Bacti Disk, An In-  Vitro Diagnostic Product Recommended For Use In Laboratory  Quality Assurance Procedures</t>
-  </si>
-  <si>
-    <t>Remel Limited Partnership, Lenexa, Kansas</t>
-  </si>
-  <si>
-    <t>July 28, 1994</t>
-  </si>
-  <si>
-    <t>An Additional Colony Type (peptostreptococcus Spp) Was  Present Upon Rehydration</t>
-  </si>
-  <si>
-    <t>Nationwide, Australia, Canada</t>
+    <t>Peptostreptococuss Anaerobius Atcc 27337 Bacti Disk An In Vitro Diagnostic Product Recommended For Use In Laboratory Quality Assurance Procedures</t>
+  </si>
+  <si>
+    <t>Remel Limited Partnership Lenexa Kansas</t>
+  </si>
+  <si>
+    <t>July 28 1994</t>
+  </si>
+  <si>
+    <t>An Additional Colony Type Peptostreptococcus Spp Was Present Upon Rehydration</t>
+  </si>
+  <si>
+    <t>Nationwide Australia Canada</t>
   </si>
   <si>
     <t>z-310-5</t>
   </si>
   <si>
-    <t>Loefflers Medium Slant Tubes, An In-vitro Diagnostic Used In  The Cultivation Of Corynebacterium Diphtheriae</t>
-  </si>
-  <si>
-    <t>August 1, 1994</t>
+    <t>Loefflers Medium Slant Tubes An In Vitro Diagnostic Used In The Cultivation Of Corynebacterium Diphtheriae</t>
+  </si>
+  <si>
+    <t>August 1 1994</t>
   </si>
   <si>
     <t>The Medium Is A Broth Instead Of A Slant</t>
   </si>
   <si>
-    <t>140 tubes were distributed; firm estimates none remains on
- the market</t>
-  </si>
-  <si>
-    <t>California, Texas, Missouri, Oklahoma</t>
+    <t>140 Tubes Were Distributed Firm Estimates None Remains On The Market</t>
+  </si>
+  <si>
+    <t>California Texas Missouri Oklahoma</t>
   </si>
   <si>
     <t>z-311-5</t>
   </si>
   <si>
-    <t>Edms Anaerocult C-mini Set, Mini Sachets And Incubation  Bags, An In-vitro Diagnostic Product Packed 25 Sachets And  Incubation Bags Per Box</t>
+    <t>Edms Anaerocult C Mini Set Mini Sachets And Incubation Bags An In Vitro Diagnostic Product Packed 25 Sachets And Incubation Bags Per Box</t>
   </si>
   <si>
     <t>Remel Limited Partnership</t>
   </si>
   <si>
-    <t>Em Diagnostic Systems, Gibbstown, New Jersey</t>
-  </si>
-  <si>
-    <t>May 9, 1994</t>
-  </si>
-  <si>
-    <t>The Actual Expiration Date Was 6/30/94 And Was Correct On  The Outside Box, But The Individual Product Was Relabeled  With An Expiration Date Of 11/30/94</t>
-  </si>
-  <si>
-    <t>50 units were distributed</t>
-  </si>
-  <si>
-    <t>Maryland, Massachusetts, Delaware, Michigan, Virginia, North  Carolina, California, Kansas</t>
+    <t>Em Diagnostic Systems Gibbstown New Jersey</t>
+  </si>
+  <si>
+    <t>May 9 1994</t>
+  </si>
+  <si>
+    <t>The Actual Expiration Date Was 6 30 94 And Was Correct On The Outside Box But The Individual Product Was Relabeled With An Expiration Date Of 11 30 94</t>
+  </si>
+  <si>
+    <t>50 Units Were Distributed</t>
+  </si>
+  <si>
+    <t>Maryland Massachusetts Delaware Michigan Virginia North Carolina California Kansas</t>
   </si>
   <si>
     <t>z-315/316-5</t>
   </si>
   <si>
-    <t>Fibrinogen Reagents And Veronal Buffer, Used For  Quantitative Determination Of Fibrinogen In Human Serum For  Coagulation Studies: (a) Dade Owren's Veronal Buffer,  Catalog B4234-25; (b) Dade Data-f Fibrinogen Determination  Reagents, Catalog #b4233-15</t>
+    <t>Fibrinogen Reagents And Veronal Buffer Used For Quantitative Determination Of Fibrinogen In Human Serum For Coagulation Studies A Dade Owren's Veronal Buffer Catalog B 4234 25 B Dade Data F Fibrinogen Determination Reagents Catalog B 4233 15</t>
   </si>
   <si>
     <t>Baxter Diagnostic</t>
   </si>
   <si>
-    <t>Baxter Diagnostic Of Puerto Rico, Inc</t>
-  </si>
-  <si>
-    <t>June 19, 1994</t>
-  </si>
-  <si>
-    <t>When Either Of The Two Lots Of Buffer Were Used As A Diluent  In The Fibrinogen Determination, The Control Values Were Out  Of Range When Read Against A Calibration Curve Constructed  With Another Lot Number Of Buffer</t>
-  </si>
-  <si>
-    <t>(a) 64,629 vials; (b) 5,908 packages were distributed</t>
+    <t>Baxter Diagnostic Of Puerto Rico Inc</t>
+  </si>
+  <si>
+    <t>June 19 1994</t>
+  </si>
+  <si>
+    <t>When Either Of The Two Lots Of Buffer Were Used As A Diluent In The Fibrinogen Determination The Control Values Were Out Of Range When Read Against A Calibration Curve Constructed With Another Lot Number Of Buffer</t>
+  </si>
+  <si>
+    <t>A 64 629 Vials B 5 908 Packages Were Distributed</t>
   </si>
 </sst>
 </file>
